--- a/EXCEL_OUPUT/Canon Australia Consolidated Accounts FY21 - Final Signed Accounts.xlsx
+++ b/EXCEL_OUPUT/Canon Australia Consolidated Accounts FY21 - Final Signed Accounts.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="832">
   <si>
     <t>Note 33. Deed of cross guarantee (continued)</t>
   </si>
@@ -387,7 +387,7 @@
     <t>Total comprehensive income for the year</t>
   </si>
   <si>
-    <t>Equity - retained profits</t>
+    <t>Equity retained profits</t>
   </si>
   <si>
     <t>Retained profits at the beginning of the financial year</t>
@@ -438,1929 +438,1944 @@
     <t>34310</t>
   </si>
   <si>
-    <t>57073</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>(322,</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>(17,</t>
-  </si>
-  <si>
-    <t>(12,</t>
-  </si>
-  <si>
-    <t>(13</t>
-  </si>
-  <si>
-    <t>(212,</t>
+    <t>570735</t>
+  </si>
+  <si>
+    <t>23975</t>
+  </si>
+  <si>
+    <t>(322,476)</t>
+  </si>
+  <si>
+    <t>2513</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>(17,309)</t>
+  </si>
+  <si>
+    <t>(12,801)</t>
+  </si>
+  <si>
+    <t>(13,126)</t>
+  </si>
+  <si>
+    <t>(212,264)</t>
+  </si>
+  <si>
+    <t>(483)</t>
+  </si>
+  <si>
+    <t>(946)</t>
+  </si>
+  <si>
+    <t>18384</t>
+  </si>
+  <si>
+    <t>(5,302)</t>
+  </si>
+  <si>
+    <t>13082</t>
+  </si>
+  <si>
+    <t>392485</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Canon Finance Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>Canon New Zealand Ltd</t>
+  </si>
+  <si>
+    <t>Harbour IT Pty Ltd*</t>
+  </si>
+  <si>
+    <t>Canon Business Services Australia Pty Ltd*</t>
+  </si>
+  <si>
+    <t>Canon Business Services Centre Philippines Inc</t>
+  </si>
+  <si>
+    <t>Newpoint International</t>
+  </si>
+  <si>
+    <t>Principal place of business I</t>
+  </si>
+  <si>
+    <t>Country of incorporation</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Ownership interest</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Profit after income tax</t>
+  </si>
+  <si>
+    <t>Total comprehensive income</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>21490</t>
+  </si>
+  <si>
+    <t>2021 $'000</t>
+  </si>
+  <si>
+    <t>244972</t>
+  </si>
+  <si>
+    <t>530034</t>
+  </si>
+  <si>
+    <t>104698</t>
+  </si>
+  <si>
+    <t>129417</t>
+  </si>
+  <si>
+    <t>360617</t>
+  </si>
+  <si>
+    <t>400617</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>2020 $'000</t>
+  </si>
+  <si>
+    <t>262171</t>
+  </si>
+  <si>
+    <t>569456</t>
+  </si>
+  <si>
+    <t>150179</t>
+  </si>
+  <si>
+    <t>190329</t>
+  </si>
+  <si>
+    <t>339127</t>
+  </si>
+  <si>
+    <t>379127</t>
+  </si>
+  <si>
+    <t>Current receivables:</t>
+  </si>
+  <si>
+    <t>Trade receivables from commonly controlled entity*</t>
+  </si>
+  <si>
+    <t>Trade receivables from controlling entity</t>
+  </si>
+  <si>
+    <t>Current payables:</t>
+  </si>
+  <si>
+    <t>Trade payables to commonly controlled entity*</t>
+  </si>
+  <si>
+    <t>Trade payables to controlling entity</t>
+  </si>
+  <si>
+    <t>Consolidated</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>379412</t>
+  </si>
+  <si>
+    <t>316062</t>
+  </si>
+  <si>
+    <t>2547923</t>
+  </si>
+  <si>
+    <t>16702382</t>
+  </si>
+  <si>
+    <t>148178</t>
+  </si>
+  <si>
+    <t>975102</t>
+  </si>
+  <si>
+    <t>170957</t>
+  </si>
+  <si>
+    <t>22224697</t>
+  </si>
+  <si>
+    <t>Sale of goods and services:</t>
+  </si>
+  <si>
+    <t>Sale of goods to commonly controlled entity*</t>
+  </si>
+  <si>
+    <t>Sale of services to commonly controlled entity*</t>
+  </si>
+  <si>
+    <t>Other income:</t>
+  </si>
+  <si>
+    <t>Interest received from controlling entity</t>
+  </si>
+  <si>
+    <t>Payment for goods and services:</t>
+  </si>
+  <si>
+    <t>Purchase of goods from commonly controlled entity*</t>
+  </si>
+  <si>
+    <t>Purchase of goods from controlling entity</t>
+  </si>
+  <si>
+    <t>Payment for services from controlling entity</t>
+  </si>
+  <si>
+    <t>Payment for other expenses:</t>
+  </si>
+  <si>
+    <t>Interest paid to controlling entity</t>
+  </si>
+  <si>
+    <t>891569</t>
+  </si>
+  <si>
+    <t>4411738</t>
+  </si>
+  <si>
+    <t>15313</t>
+  </si>
+  <si>
+    <t>2739481</t>
+  </si>
+  <si>
+    <t>251187011</t>
+  </si>
+  <si>
+    <t>2122177</t>
+  </si>
+  <si>
+    <t>57264</t>
+  </si>
+  <si>
+    <t>603106</t>
+  </si>
+  <si>
+    <t>4386254</t>
+  </si>
+  <si>
+    <t>28970</t>
+  </si>
+  <si>
+    <t>2936244</t>
+  </si>
+  <si>
+    <t>257315172</t>
+  </si>
+  <si>
+    <t>2501189</t>
+  </si>
+  <si>
+    <t>940105</t>
+  </si>
+  <si>
+    <t>Current borrowings:</t>
+  </si>
+  <si>
+    <t>Loan from controlling entity</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>Consolidated - 2020</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2 $'000</t>
+  </si>
+  <si>
+    <t>Level 3 $'000</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Bank guarantees</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>Aggregate compensation</t>
+  </si>
+  <si>
+    <t>3165702</t>
+  </si>
+  <si>
+    <t>4052263</t>
+  </si>
+  <si>
+    <t>Balance at 1 January 2020</t>
+  </si>
+  <si>
+    <t>Foreign currency translation</t>
+  </si>
+  <si>
+    <t>Actuarial loss</t>
+  </si>
+  <si>
+    <t>Balance at 31 December 2020</t>
+  </si>
+  <si>
+    <t>Actuarial gain</t>
+  </si>
+  <si>
+    <t>Balance at 31 December 2021</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>(1,563)</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>Retirement benefit obligation $'000</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>(240)</t>
+  </si>
+  <si>
+    <t>(182)</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>(7,572)</t>
+  </si>
+  <si>
+    <t>(5,012)</t>
+  </si>
+  <si>
+    <t>(6,815)</t>
+  </si>
+  <si>
+    <t>(6,189)</t>
+  </si>
+  <si>
+    <t>Foreign currency</t>
+  </si>
+  <si>
+    <t>Retirement benefit obligation reserve</t>
+  </si>
+  <si>
+    <t>Common control reserve</t>
+  </si>
+  <si>
+    <t>Lease make good</t>
+  </si>
+  <si>
+    <t>Warranties</t>
+  </si>
+  <si>
+    <t>3235</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>5095</t>
+  </si>
+  <si>
+    <t>3386</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>6464</t>
+  </si>
+  <si>
+    <t>10415</t>
+  </si>
+  <si>
+    <t>Consolidated 2021</t>
+  </si>
+  <si>
+    <t>Carrying amount at the start of the year</t>
+  </si>
+  <si>
+    <t>Additional provisions recognised</t>
+  </si>
+  <si>
+    <t>Amounts used</t>
+  </si>
+  <si>
+    <t>Carrying amount at the end of the year</t>
+  </si>
+  <si>
+    <t>Note 24. Equity - issued capital</t>
+  </si>
+  <si>
+    <t>Ordinary shares fully paid</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>Lease make</t>
+  </si>
+  <si>
+    <t>good $'000</t>
+  </si>
+  <si>
+    <t>(151)</t>
+  </si>
+  <si>
+    <t>Warranties $'000</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>(943)</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>Income tax $'000</t>
+  </si>
+  <si>
+    <t>(4,857)</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Note 22. Non-current liabilities deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Deferred tax liability comprises temporary differences attributable to:</t>
+  </si>
+  <si>
+    <t>Amounts recognised in profit or loss:</t>
+  </si>
+  <si>
+    <t>Work in progress</t>
+  </si>
+  <si>
+    <t>Elimination of profit between MEC group members</t>
+  </si>
+  <si>
+    <t>Intangible assets recognised on acquisition</t>
+  </si>
+  <si>
+    <t>Deferred tax assets offset against deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Deferred tax liability</t>
+  </si>
+  <si>
+    <t>Movements:</t>
+  </si>
+  <si>
+    <t>Opening balance</t>
+  </si>
+  <si>
+    <t>Charged to profit or loss (note 8)</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>13907</t>
+  </si>
+  <si>
+    <t>11786</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>(31.779)</t>
+  </si>
+  <si>
+    <t>7178</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>2977</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>14222</t>
+  </si>
+  <si>
+    <t>10363</t>
+  </si>
+  <si>
+    <t>2696</t>
+  </si>
+  <si>
+    <t>(32,975)</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>4767</t>
+  </si>
+  <si>
+    <t>Loan from related party controlling entity</t>
+  </si>
+  <si>
+    <t>Deferred tax asset comprises temporary differences attributable to:</t>
+  </si>
+  <si>
+    <t>Allowance for expected credit losses</t>
+  </si>
+  <si>
+    <t>Tax losses carried forward</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Deferred tax asset</t>
+  </si>
+  <si>
+    <t>Credited/(charged) to profit or loss (note 8)</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>8291</t>
+  </si>
+  <si>
+    <t>2606</t>
+  </si>
+  <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>4446</t>
+  </si>
+  <si>
+    <t>14236</t>
+  </si>
+  <si>
+    <t>(31,779)</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>1695</t>
+  </si>
+  <si>
+    <t>2229</t>
+  </si>
+  <si>
+    <t>7793</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>4333</t>
+  </si>
+  <si>
+    <t>14683</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>(71)</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Payables to related party</t>
+  </si>
+  <si>
+    <t>Other payables and accruals</t>
+  </si>
+  <si>
+    <t>BAS payable</t>
+  </si>
+  <si>
+    <t>7526</t>
+  </si>
+  <si>
+    <t>17137</t>
+  </si>
+  <si>
+    <t>50564</t>
+  </si>
+  <si>
+    <t>4277</t>
+  </si>
+  <si>
+    <t>79504</t>
+  </si>
+  <si>
+    <t>11332</t>
+  </si>
+  <si>
+    <t>21917</t>
+  </si>
+  <si>
+    <t>58702</t>
+  </si>
+  <si>
+    <t>5583</t>
+  </si>
+  <si>
+    <t>97534</t>
+  </si>
+  <si>
+    <t>Balance at 1 January 2021</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Lease modifications</t>
+  </si>
+  <si>
+    <t>Lease terminations</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>Land and buildings $'000</t>
+  </si>
+  <si>
+    <t>47025</t>
+  </si>
+  <si>
+    <t>2082</t>
+  </si>
+  <si>
+    <t>(768)</t>
+  </si>
+  <si>
+    <t>(196)</t>
+  </si>
+  <si>
+    <t>(14,239)</t>
+  </si>
+  <si>
+    <t>33904</t>
+  </si>
+  <si>
+    <t>Plant and equipment $'000</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>(326)</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Total $'000</t>
+  </si>
+  <si>
+    <t>47386</t>
+  </si>
+  <si>
+    <t>(509)</t>
+  </si>
+  <si>
+    <t>(14,565)</t>
+  </si>
+  <si>
+    <t>34198</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>Amortisation expense</t>
+  </si>
+  <si>
+    <t>Goodwill $'000</t>
+  </si>
+  <si>
+    <t>81052</t>
+  </si>
+  <si>
+    <t>Software $'000</t>
+  </si>
+  <si>
+    <t>10732</t>
+  </si>
+  <si>
+    <t>2830</t>
+  </si>
+  <si>
+    <t>(38)</t>
+  </si>
+  <si>
+    <t>(5,138)</t>
+  </si>
+  <si>
+    <t>8386</t>
+  </si>
+  <si>
+    <t>contracts $'000</t>
+  </si>
+  <si>
+    <t>8162</t>
+  </si>
+  <si>
+    <t>(1,987)</t>
+  </si>
+  <si>
+    <t>6175</t>
+  </si>
+  <si>
+    <t>99946</t>
+  </si>
+  <si>
+    <t>(7,125)</t>
+  </si>
+  <si>
+    <t>95613</t>
+  </si>
+  <si>
+    <t>Note 16. Non-current assets - intangibles</t>
+  </si>
+  <si>
+    <t>Goodwill at cost</t>
+  </si>
+  <si>
+    <t>Software at cost</t>
+  </si>
+  <si>
+    <t>Less: Accumulated amortisation</t>
+  </si>
+  <si>
+    <t>Brands - at cost</t>
+  </si>
+  <si>
+    <t>Customer contracts at cost</t>
+  </si>
+  <si>
+    <t>48087</t>
+  </si>
+  <si>
+    <t>(39,701)</t>
+  </si>
+  <si>
+    <t>649 (649) 17,878</t>
+  </si>
+  <si>
+    <t>(11,703)</t>
+  </si>
+  <si>
+    <t>76461</t>
+  </si>
+  <si>
+    <t>(65,729)</t>
+  </si>
+  <si>
+    <t>(9,716)</t>
+  </si>
+  <si>
+    <t>Foreign exchange differences</t>
+  </si>
+  <si>
+    <t>Transfers in/(out)</t>
+  </si>
+  <si>
+    <t>Leasehold improvements $'000</t>
+  </si>
+  <si>
+    <t>16420</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>(3,145)</t>
+  </si>
+  <si>
+    <t>13552</t>
+  </si>
+  <si>
+    <t>Motor vehicles $'000</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>(673)</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>Office equipment $'000</t>
+  </si>
+  <si>
+    <t>9946</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>(469)</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>(3,092)</t>
+  </si>
+  <si>
+    <t>7404</t>
+  </si>
+  <si>
+    <t>Rental assets $'000</t>
+  </si>
+  <si>
+    <t>8683</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>(460)</t>
+  </si>
+  <si>
+    <t>(215)</t>
+  </si>
+  <si>
+    <t>(2,928)</t>
+  </si>
+  <si>
+    <t>6054</t>
+  </si>
+  <si>
+    <t>Construction in progress $'000</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>(790)</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>38061</t>
+  </si>
+  <si>
+    <t>2079</t>
+  </si>
+  <si>
+    <t>(941)</t>
+  </si>
+  <si>
+    <t>(743)</t>
+  </si>
+  <si>
+    <t>(9,838)</t>
+  </si>
+  <si>
+    <t>28627</t>
+  </si>
+  <si>
+    <t>Note 14. Non-current assets property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Leasehold improvements at cost</t>
+  </si>
+  <si>
+    <t>Less: Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Motor vehicles</t>
+  </si>
+  <si>
+    <t>Office equipment at cost</t>
+  </si>
+  <si>
+    <t>Rental assets at cost</t>
+  </si>
+  <si>
+    <t>Construction in progress at cost</t>
+  </si>
+  <si>
+    <t>32454</t>
+  </si>
+  <si>
+    <t>(18,902)</t>
+  </si>
+  <si>
+    <t>3,207 (2,221)</t>
+  </si>
+  <si>
+    <t>39131</t>
+  </si>
+  <si>
+    <t>(31,727)</t>
+  </si>
+  <si>
+    <t>19696</t>
+  </si>
+  <si>
+    <t>(13,642)</t>
+  </si>
+  <si>
+    <t>32241</t>
+  </si>
+  <si>
+    <t>(15,821)</t>
+  </si>
+  <si>
+    <t>3332</t>
+  </si>
+  <si>
+    <t>(1,741)</t>
+  </si>
+  <si>
+    <t>43357</t>
+  </si>
+  <si>
+    <t>(33,411)</t>
+  </si>
+  <si>
+    <t>20771</t>
+  </si>
+  <si>
+    <t>(12,088)</t>
+  </si>
+  <si>
+    <t>Land and buildings</t>
+  </si>
+  <si>
+    <t>Plant and equipment right-of-use</t>
+  </si>
+  <si>
+    <t>71337</t>
+  </si>
+  <si>
+    <t>(37,433)</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>(694)</t>
+  </si>
+  <si>
+    <t>73092</t>
+  </si>
+  <si>
+    <t>(26,067)</t>
+  </si>
+  <si>
+    <t>(627)</t>
+  </si>
+  <si>
+    <t>Lease receivables</t>
+  </si>
+  <si>
+    <t>Less: Allowance for expected credit losses</t>
+  </si>
+  <si>
+    <t>113613</t>
+  </si>
+  <si>
+    <t>(2,317)</t>
+  </si>
+  <si>
+    <t>111296</t>
+  </si>
+  <si>
+    <t>130113</t>
+  </si>
+  <si>
+    <t>(2,636)</t>
+  </si>
+  <si>
+    <t>127477</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Security deposits</t>
+  </si>
+  <si>
+    <t>Other deposits</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>5031</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>2231</t>
+  </si>
+  <si>
+    <t>8583</t>
+  </si>
+  <si>
+    <t>5034</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>6791</t>
+  </si>
+  <si>
+    <t>Finished goods</t>
+  </si>
+  <si>
+    <t>Less: Provision for impairment</t>
+  </si>
+  <si>
+    <t>73348</t>
+  </si>
+  <si>
+    <t>(5,430)</t>
+  </si>
+  <si>
+    <t>67918</t>
+  </si>
+  <si>
+    <t>76211</t>
+  </si>
+  <si>
+    <t>(8,594)</t>
+  </si>
+  <si>
+    <t>67617</t>
+  </si>
+  <si>
+    <t>Lessor commitments</t>
+  </si>
+  <si>
+    <t>Committed at the reporting date and recognised as assets, receivable:</t>
+  </si>
+  <si>
+    <t>1 year or less</t>
+  </si>
+  <si>
+    <t>Between 1 and 2 years</t>
+  </si>
+  <si>
+    <t>Between 2 and 3 years</t>
+  </si>
+  <si>
+    <t>Between 3 and 4 years</t>
+  </si>
+  <si>
+    <t>Between 4 and 5 years</t>
+  </si>
+  <si>
+    <t>Over 5 years</t>
+  </si>
+  <si>
+    <t>Total commitment</t>
+  </si>
+  <si>
+    <t>Less: Future finance charges</t>
+  </si>
+  <si>
+    <t>Net commitment recognised as assets</t>
+  </si>
+  <si>
+    <t>Representing:</t>
+  </si>
+  <si>
+    <t>Lease receivable current</t>
+  </si>
+  <si>
+    <t>Finance lease receivable - non-current (note 13)</t>
+  </si>
+  <si>
+    <t>108325</t>
+  </si>
+  <si>
+    <t>71096</t>
+  </si>
+  <si>
+    <t>42275</t>
+  </si>
+  <si>
+    <t>23014</t>
+  </si>
+  <si>
+    <t>7937</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>253474</t>
+  </si>
+  <si>
+    <t>(48,261)</t>
+  </si>
+  <si>
+    <t>205213</t>
+  </si>
+  <si>
+    <t>91600</t>
+  </si>
+  <si>
+    <t>118003</t>
+  </si>
+  <si>
+    <t>81737</t>
+  </si>
+  <si>
+    <t>51303</t>
+  </si>
+  <si>
+    <t>24415</t>
+  </si>
+  <si>
+    <t>8227</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>284537</t>
+  </si>
+  <si>
+    <t>(52,752)</t>
+  </si>
+  <si>
+    <t>231785</t>
+  </si>
+  <si>
+    <t>101672</t>
+  </si>
+  <si>
+    <t>Note 9. Current assets cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash at bank</t>
+  </si>
+  <si>
+    <t>Short-term deposits</t>
+  </si>
+  <si>
+    <t>Note 10. Current assets trade and other receivables</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Receivable from related party</t>
+  </si>
+  <si>
+    <t>Other receivables</t>
+  </si>
+  <si>
+    <t>43482</t>
+  </si>
+  <si>
+    <t>75609</t>
+  </si>
+  <si>
+    <t>119092</t>
+  </si>
+  <si>
+    <t>97921</t>
+  </si>
+  <si>
+    <t>(5,059)</t>
+  </si>
+  <si>
+    <t>92862</t>
+  </si>
+  <si>
+    <t>(1,646)</t>
+  </si>
+  <si>
+    <t>89954</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>3132</t>
+  </si>
+  <si>
+    <t>186308</t>
+  </si>
+  <si>
+    <t>50830</t>
+  </si>
+  <si>
+    <t>29543</t>
+  </si>
+  <si>
+    <t>80373</t>
+  </si>
+  <si>
+    <t>112025</t>
+  </si>
+  <si>
+    <t>(4,684)</t>
+  </si>
+  <si>
+    <t>107341</t>
+  </si>
+  <si>
+    <t>(1,829)</t>
+  </si>
+  <si>
+    <t>99843</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>211383</t>
+  </si>
+  <si>
+    <t>Current tax</t>
+  </si>
+  <si>
+    <t>Deferred tax origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Adjustment recognised for prior periods</t>
+  </si>
+  <si>
+    <t>Aggregate income tax expense</t>
+  </si>
+  <si>
+    <t>Decrease/increase) in deferred tax assets (note 17)</t>
+  </si>
+  <si>
+    <t>Increase in deferred tax liabilities (note 22)</t>
+  </si>
+  <si>
+    <t>Tax at the statutory tax rate of 30%</t>
+  </si>
+  <si>
+    <t>Entertainment expenses</t>
+  </si>
+  <si>
+    <t>12915</t>
+  </si>
+  <si>
+    <t>11425</t>
+  </si>
+  <si>
+    <t>(4,505)</t>
+  </si>
+  <si>
+    <t>8410</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>51428</t>
+  </si>
+  <si>
+    <t>15428</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>(2,619)</t>
+  </si>
+  <si>
+    <t>5258</t>
+  </si>
+  <si>
+    <t>Profit before income tax includes the following specific expenses:</t>
+  </si>
+  <si>
+    <t>Interest and finance charges paid/payable on borrowings</t>
+  </si>
+  <si>
+    <t>Interest and finance charges paid/payable on lease liabilities</t>
+  </si>
+  <si>
+    <t>Finance costs expensed</t>
+  </si>
+  <si>
+    <t>Superannuation expense</t>
+  </si>
+  <si>
+    <t>Defined contribution superannuation expense</t>
+  </si>
+  <si>
+    <t>Leases are - recognised the in following profit or amounts loss with respect to leases:</t>
+  </si>
+  <si>
+    <t>Depreciation expense of right-of-use assets (included in administration expenses)</t>
+  </si>
+  <si>
+    <t>Interest expense on lease liabilities (included in finance costs)</t>
+  </si>
+  <si>
+    <t>are recognised in profit or loss with respect to</t>
+  </si>
+  <si>
+    <t>2021 2020</t>
+  </si>
+  <si>
+    <t>$'000 $'000</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>9998</t>
+  </si>
+  <si>
+    <t>14565</t>
+  </si>
+  <si>
+    <t>15599</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>11840</t>
+  </si>
+  <si>
+    <t>15109</t>
+  </si>
+  <si>
+    <t>16474</t>
+  </si>
+  <si>
+    <t>The disaggregation of revenue from contracts with customers is as follows:</t>
+  </si>
+  <si>
+    <t>Geographical regions</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition</t>
+  </si>
+  <si>
+    <t>Goods transferred at a point in time</t>
+  </si>
+  <si>
+    <t>Services transferred over time</t>
+  </si>
+  <si>
+    <t>Note 5. Revenue from leasing activities</t>
+  </si>
+  <si>
+    <t>Finance lease revenue</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Variable lease payments</t>
+  </si>
+  <si>
+    <t>Operating lease revenue</t>
+  </si>
+  <si>
+    <t>Note 6. Other income</t>
+  </si>
+  <si>
+    <t>Net foreign exchange gain</t>
+  </si>
+  <si>
+    <t>521348</t>
+  </si>
+  <si>
+    <t>90928</t>
+  </si>
+  <si>
+    <t>4741</t>
+  </si>
+  <si>
+    <t>617017</t>
+  </si>
+  <si>
+    <t>431957</t>
+  </si>
+  <si>
+    <t>185060</t>
+  </si>
+  <si>
+    <t>16217</t>
+  </si>
+  <si>
+    <t>2878</t>
+  </si>
+  <si>
+    <t>19095</t>
+  </si>
+  <si>
+    <t>8304</t>
+  </si>
+  <si>
+    <t>27399</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>520020</t>
+  </si>
+  <si>
+    <t>89590</t>
+  </si>
+  <si>
+    <t>5111</t>
+  </si>
+  <si>
+    <t>614721</t>
+  </si>
+  <si>
+    <t>428075</t>
+  </si>
+  <si>
+    <t>186646</t>
+  </si>
+  <si>
+    <t>18411</t>
+  </si>
+  <si>
+    <t>2652</t>
+  </si>
+  <si>
+    <t>21063</t>
+  </si>
+  <si>
+    <t>7502</t>
+  </si>
+  <si>
+    <t>28565</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Revenue from contracts with customers*</t>
+  </si>
+  <si>
+    <t>Revenue from sale of goods</t>
+  </si>
+  <si>
+    <t>Revenue from rendering of services</t>
+  </si>
+  <si>
+    <t>Leasehold improvements</t>
+  </si>
+  <si>
+    <t>Office equipment</t>
+  </si>
+  <si>
+    <t>Rental assets</t>
+  </si>
+  <si>
+    <t>Over the life of the lease</t>
+  </si>
+  <si>
+    <t>3-5 years</t>
+  </si>
+  <si>
+    <t>3-7 years</t>
+  </si>
+  <si>
+    <t>Consolidated statement of cash flows For the year ended 31 December 2021</t>
+  </si>
+  <si>
+    <t>Cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Receipts from customers (inclusive of GST)</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees (inclusive of GST)</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest and other finance costs paid</t>
+  </si>
+  <si>
+    <t>Income taxes refunded/(paid)</t>
+  </si>
+  <si>
+    <t>Net cash from operating activities</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Payments for property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Payments for intangibles</t>
+  </si>
+  <si>
+    <t>Payments for security deposits</t>
+  </si>
+  <si>
+    <t>Proceeds from disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Proceeds from disposal of intangibles</t>
+  </si>
+  <si>
+    <t>Proceeds from release of security deposits</t>
+  </si>
+  <si>
+    <t>Net cash used in investing activities</t>
+  </si>
+  <si>
+    <t>Cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Repayment of borrowings</t>
+  </si>
+  <si>
+    <t>Repayment of principal portion of lease liabilities</t>
+  </si>
+  <si>
+    <t>Net cash used in financing activities</t>
+  </si>
+  <si>
+    <t>Net increase in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the beginning of the financial year</t>
+  </si>
+  <si>
+    <t>Effects of exchange rate changes on cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the end of the financial year</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>752435</t>
+  </si>
+  <si>
+    <t>(650,378)</t>
+  </si>
+  <si>
+    <t>102057</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>(1,106)</t>
+  </si>
+  <si>
+    <t>4104</t>
+  </si>
+  <si>
+    <t>105344</t>
+  </si>
+  <si>
+    <t>(1,336)</t>
+  </si>
+  <si>
+    <t>(2,830)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>(3,447)</t>
+  </si>
+  <si>
+    <t>(50,000)</t>
+  </si>
+  <si>
+    <t>(13,179)</t>
+  </si>
+  <si>
+    <t>(63,179)</t>
+  </si>
+  <si>
+    <t>38718</t>
+  </si>
+  <si>
+    <t>755,958 (703,683)</t>
+  </si>
+  <si>
+    <t>52275</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>(2,308)</t>
+  </si>
+  <si>
+    <t>(1,601)</t>
+  </si>
+  <si>
+    <t>48889</t>
+  </si>
+  <si>
+    <t>(4,558)</t>
+  </si>
+  <si>
+    <t>(1,807)</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>(4,340)</t>
+  </si>
+  <si>
+    <t>(25,778)</t>
+  </si>
+  <si>
+    <t>(14,166)</t>
+  </si>
+  <si>
+    <t>(39,944)</t>
+  </si>
+  <si>
+    <t>4605</t>
+  </si>
+  <si>
+    <t>77252</t>
+  </si>
+  <si>
+    <t>(1,484)</t>
+  </si>
+  <si>
+    <t>Issued</t>
+  </si>
+  <si>
+    <t>capital $'000</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>Reserves $'000</t>
+  </si>
+  <si>
+    <t>(1,803)</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>Retained profits $'000</t>
+  </si>
+  <si>
+    <t>406278</t>
+  </si>
+  <si>
+    <t>5221</t>
+  </si>
+  <si>
+    <t>411499</t>
+  </si>
+  <si>
+    <t>Retained</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>43018</t>
+  </si>
+  <si>
+    <t>454517</t>
+  </si>
+  <si>
+    <t>Total equity $'000</t>
+  </si>
+  <si>
+    <t>441266</t>
+  </si>
+  <si>
+    <t>3418</t>
+  </si>
+  <si>
+    <t>444684</t>
+  </si>
+  <si>
+    <t>43644</t>
+  </si>
+  <si>
+    <t>488328</t>
+  </si>
+  <si>
+    <t>As at 31 December 2021</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Retirement benefit obligations</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>(5,</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>13082</t>
-  </si>
-  <si>
-    <t>392485</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Canon Finance Australia Pty Ltd</t>
-  </si>
-  <si>
-    <t>Canon New Zealand Ltd</t>
-  </si>
-  <si>
-    <t>Harbour IT Pty Ltd*</t>
-  </si>
-  <si>
-    <t>Canon Business Services Australia Pty Ltd*</t>
-  </si>
-  <si>
-    <t>Canon Business Services Centre Philippines Inc</t>
-  </si>
-  <si>
-    <t>Newpoint International</t>
-  </si>
-  <si>
-    <t>Principal place of business I</t>
-  </si>
-  <si>
-    <t>Country of incorporation</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Ownership interest</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Profit after income tax</t>
-  </si>
-  <si>
-    <t>Total comprehensive income</t>
-  </si>
-  <si>
-    <t>Total current assets</t>
-  </si>
-  <si>
-    <t>Total current liabilities</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>21490</t>
-  </si>
-  <si>
-    <t>2021 $'000</t>
-  </si>
-  <si>
-    <t>244972</t>
-  </si>
-  <si>
-    <t>530034</t>
-  </si>
-  <si>
-    <t>104698</t>
-  </si>
-  <si>
-    <t>129417</t>
-  </si>
-  <si>
-    <t>360617</t>
-  </si>
-  <si>
-    <t>400617</t>
-  </si>
-  <si>
-    <t>2020 $'000</t>
-  </si>
-  <si>
-    <t>262171</t>
-  </si>
-  <si>
-    <t>569456</t>
-  </si>
-  <si>
-    <t>150179</t>
-  </si>
-  <si>
-    <t>190329</t>
-  </si>
-  <si>
-    <t>339127</t>
-  </si>
-  <si>
-    <t>379127</t>
-  </si>
-  <si>
-    <t>Current receivables:</t>
-  </si>
-  <si>
-    <t>Trade receivables from commonly controlled entity*</t>
-  </si>
-  <si>
-    <t>Trade receivables from controlling entity</t>
-  </si>
-  <si>
-    <t>Current payables:</t>
-  </si>
-  <si>
-    <t>Trade payables to commonly controlled entity*</t>
-  </si>
-  <si>
-    <t>Trade payables to controlling entity</t>
-  </si>
-  <si>
-    <t>Consolidated</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>379412</t>
-  </si>
-  <si>
-    <t>316062</t>
-  </si>
-  <si>
-    <t>2547923</t>
-  </si>
-  <si>
-    <t>16702382</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>22224697</t>
-  </si>
-  <si>
-    <t>Sale of goods and services:</t>
-  </si>
-  <si>
-    <t>Sale of goods to commonly controlled entity*</t>
-  </si>
-  <si>
-    <t>Sale of services to commonly controlled entity*</t>
-  </si>
-  <si>
-    <t>Other income:</t>
-  </si>
-  <si>
-    <t>Interest received from controlling entity</t>
-  </si>
-  <si>
-    <t>Payment for goods and services:</t>
-  </si>
-  <si>
-    <t>Purchase of goods from commonly controlled entity*</t>
-  </si>
-  <si>
-    <t>Purchase of goods from controlling entity</t>
-  </si>
-  <si>
-    <t>Payment for services from controlling entity</t>
-  </si>
-  <si>
-    <t>Payment for other expenses:</t>
-  </si>
-  <si>
-    <t>Interest paid to controlling entity</t>
-  </si>
-  <si>
-    <t>891569</t>
-  </si>
-  <si>
-    <t>4411738</t>
-  </si>
-  <si>
-    <t>15313</t>
-  </si>
-  <si>
-    <t>2739481</t>
-  </si>
-  <si>
-    <t>251187011</t>
-  </si>
-  <si>
-    <t>2122177</t>
-  </si>
-  <si>
-    <t>57264</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>4386</t>
-  </si>
-  <si>
-    <t>28970</t>
-  </si>
-  <si>
-    <t>2936244</t>
-  </si>
-  <si>
-    <t>257315172</t>
-  </si>
-  <si>
-    <t>2501189</t>
-  </si>
-  <si>
-    <t>940105</t>
-  </si>
-  <si>
-    <t>Current borrowings:</t>
-  </si>
-  <si>
-    <t>Loan from controlling entity</t>
-  </si>
-  <si>
-    <t>50000000</t>
-  </si>
-  <si>
-    <t>Consolidated - 2020</t>
-  </si>
-  <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
-    <t>Derivative financial instruments forward contracts</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 2 $'000</t>
-  </si>
-  <si>
-    <t>Level 3 $'000</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Bank guarantees</t>
-  </si>
-  <si>
-    <t>993</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>Aggregate compensation</t>
-  </si>
-  <si>
-    <t>3165702</t>
-  </si>
-  <si>
-    <t>4052263</t>
-  </si>
-  <si>
-    <t>Balance at 1 January 2020</t>
-  </si>
-  <si>
-    <t>Foreign currency translation</t>
-  </si>
-  <si>
-    <t>Actuarial loss</t>
-  </si>
-  <si>
-    <t>Balance at 31 December 2020</t>
-  </si>
-  <si>
-    <t>Actuarial gain</t>
-  </si>
-  <si>
-    <t>Balance at 31 December 2021</t>
-  </si>
-  <si>
-    <t>Foreign</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>(1,563)</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>Retirement benefit obligation $'000</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>(240)</t>
-  </si>
-  <si>
-    <t>(182)</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>(7,572)</t>
-  </si>
-  <si>
-    <t>(5,0</t>
-  </si>
-  <si>
-    <t>(1,5</t>
-  </si>
-  <si>
-    <t>(6,</t>
-  </si>
-  <si>
-    <t>Foreign currency reserve</t>
-  </si>
-  <si>
-    <t>Retirement benefit obligation reserve</t>
-  </si>
-  <si>
-    <t>Common control reserve</t>
-  </si>
-  <si>
-    <t>(6,189)</t>
-  </si>
-  <si>
-    <t>(1</t>
-  </si>
-  <si>
-    <t>(7,57</t>
-  </si>
-  <si>
-    <t>(6,815)</t>
-  </si>
-  <si>
-    <t>Lease make good</t>
-  </si>
-  <si>
-    <t>Warranties</t>
-  </si>
-  <si>
-    <t>3235</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>5095</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Consolidated - 2021</t>
-  </si>
-  <si>
-    <t>Carrying amount at the start of the year</t>
-  </si>
-  <si>
-    <t>Additional provisions recognised</t>
-  </si>
-  <si>
-    <t>Amounts used</t>
-  </si>
-  <si>
-    <t>Carrying amount at the end of the year</t>
-  </si>
-  <si>
-    <t>Note 24. Equity issued capital</t>
-  </si>
-  <si>
-    <t>Ordinary shares - fully paid</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>40000000</t>
-  </si>
-  <si>
-    <t>Lease make</t>
-  </si>
-  <si>
-    <t>good $'000</t>
-  </si>
-  <si>
-    <t>3386</t>
-  </si>
-  <si>
-    <t>(151)</t>
-  </si>
-  <si>
-    <t>Warranties $'000</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>(943)</t>
-  </si>
-  <si>
-    <t>1669</t>
-  </si>
-  <si>
-    <t>Income tax $'000</t>
-  </si>
-  <si>
-    <t>6464</t>
-  </si>
-  <si>
-    <t>(4,857)</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>Other payables</t>
-  </si>
-  <si>
-    <t>Note 22. Non-current liabilities - deferred tax liabilities</t>
-  </si>
-  <si>
-    <t>Deferred tax liability comprises temporary differences attributable to:</t>
-  </si>
-  <si>
-    <t>Amounts recognised in profit or loss:</t>
-  </si>
-  <si>
-    <t>Work in progress</t>
-  </si>
-  <si>
-    <t>Elimination of profit between MEC group members</t>
-  </si>
-  <si>
-    <t>Intangible assets recognised on acquisition</t>
-  </si>
-  <si>
-    <t>Deferred tax assets offset against deferred tax liabilities</t>
-  </si>
-  <si>
-    <t>Deferred tax liability</t>
-  </si>
-  <si>
-    <t>Movements:</t>
-  </si>
-  <si>
-    <t>Opening balance</t>
-  </si>
-  <si>
-    <t>Charged to profit or loss (note 8)</t>
-  </si>
-  <si>
-    <t>Closing balance</t>
-  </si>
-  <si>
-    <t>2218</t>
-  </si>
-  <si>
-    <t>1179</t>
-  </si>
-  <si>
-    <t>13907</t>
-  </si>
-  <si>
-    <t>11786</t>
-  </si>
-  <si>
-    <t>1863</t>
-  </si>
-  <si>
-    <t>(31.779)</t>
-  </si>
-  <si>
-    <t>7178</t>
-  </si>
-  <si>
-    <t>5200</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>2977</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2696</t>
-  </si>
-  <si>
-    <t>(32,975)</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>4767</t>
-  </si>
-  <si>
-    <t>Loan from related party controlling entity</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Deferred tax asset comprises temporary differences attributable to:</t>
-  </si>
-  <si>
-    <t>Allowance for expected credit losses</t>
-  </si>
-  <si>
-    <t>Tax losses carried forward</t>
-  </si>
-  <si>
-    <t>Accrued expenses</t>
-  </si>
-  <si>
-    <t>Foreign currency</t>
-  </si>
-  <si>
-    <t>Deferred tax asset</t>
-  </si>
-  <si>
-    <t>Credted/(Charged) to profit or loss (note 8)</t>
-  </si>
-  <si>
-    <t>1085</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>8291</t>
-  </si>
-  <si>
-    <t>2606</t>
-  </si>
-  <si>
-    <t>1340</t>
-  </si>
-  <si>
-    <t>4446</t>
-  </si>
-  <si>
-    <t>14236</t>
-  </si>
-  <si>
-    <t>(31,779)</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>(32,</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Trade payables</t>
-  </si>
-  <si>
-    <t>Payables to related party</t>
-  </si>
-  <si>
-    <t>Other payables and accruals</t>
-  </si>
-  <si>
-    <t>BAS payable</t>
-  </si>
-  <si>
-    <t>7526</t>
-  </si>
-  <si>
-    <t>17137</t>
-  </si>
-  <si>
-    <t>50564</t>
-  </si>
-  <si>
-    <t>4277</t>
-  </si>
-  <si>
-    <t>79504</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>5870</t>
-  </si>
-  <si>
-    <t>5583</t>
-  </si>
-  <si>
-    <t>97534</t>
-  </si>
-  <si>
-    <t>Balance at 1 January 2021</t>
-  </si>
-  <si>
-    <t>Additions</t>
-  </si>
-  <si>
-    <t>Lease modifications</t>
-  </si>
-  <si>
-    <t>Lease terminations</t>
-  </si>
-  <si>
-    <t>Depreciation expense</t>
-  </si>
-  <si>
-    <t>Land and buildings $'000</t>
-  </si>
-  <si>
-    <t>47025</t>
-  </si>
-  <si>
-    <t>2082</t>
-  </si>
-  <si>
-    <t>(768)</t>
-  </si>
-  <si>
-    <t>(196)</t>
-  </si>
-  <si>
-    <t>(14,239)</t>
-  </si>
-  <si>
-    <t>33904</t>
-  </si>
-  <si>
-    <t>Plant and equipment $'000</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>(326)</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>Total $000</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>(14,565)</t>
-  </si>
-  <si>
-    <t>34198</t>
-  </si>
-  <si>
-    <t>Disposals</t>
-  </si>
-  <si>
-    <t>Amortisation expense</t>
-  </si>
-  <si>
-    <t>Goodwill $000</t>
-  </si>
-  <si>
-    <t>81052</t>
-  </si>
-  <si>
-    <t>Software $'000</t>
-  </si>
-  <si>
-    <t>10732</t>
-  </si>
-  <si>
-    <t>2830</t>
-  </si>
-  <si>
-    <t>(38)</t>
-  </si>
-  <si>
-    <t>(5,138)</t>
-  </si>
-  <si>
-    <t>8386</t>
-  </si>
-  <si>
-    <t>contracts $'000</t>
-  </si>
-  <si>
-    <t>8162</t>
-  </si>
-  <si>
-    <t>(1,987)</t>
-  </si>
-  <si>
-    <t>6175</t>
-  </si>
-  <si>
-    <t>Total $'000</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>(7,12</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>Note 16. Non-current assets - intangibles</t>
-  </si>
-  <si>
-    <t>Goodwill - at cost</t>
-  </si>
-  <si>
-    <t>Software - at cost</t>
-  </si>
-  <si>
-    <t>Less: Accumulated amortisation</t>
-  </si>
-  <si>
-    <t>Brands - at cost</t>
-  </si>
-  <si>
-    <t>Customer contracts - at cost</t>
-  </si>
-  <si>
-    <t>48087</t>
-  </si>
-  <si>
-    <t>(39,701)</t>
-  </si>
-  <si>
-    <t>649 (649) 17,878</t>
-  </si>
-  <si>
-    <t>(11,703)</t>
-  </si>
-  <si>
-    <t>95613</t>
-  </si>
-  <si>
-    <t>76461</t>
-  </si>
-  <si>
-    <t>(65,729)</t>
-  </si>
-  <si>
-    <t>(9,7</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>99946</t>
-  </si>
-  <si>
-    <t>Foreign exchange differences</t>
-  </si>
-  <si>
-    <t>Transfers in/(out)</t>
-  </si>
-  <si>
-    <t>Leasehold improvements $'000</t>
-  </si>
-  <si>
-    <t>16420</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>(3,145)</t>
-  </si>
-  <si>
-    <t>13552</t>
-  </si>
-  <si>
-    <t>Motor vehicles $'000</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>(12)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>(673)</t>
-  </si>
-  <si>
-    <t>986</t>
-  </si>
-  <si>
-    <t>Office equipment $'000</t>
-  </si>
-  <si>
-    <t>9946</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>(469)</t>
-  </si>
-  <si>
-    <t>(3,092)</t>
-  </si>
-  <si>
-    <t>7404</t>
-  </si>
-  <si>
-    <t>Rental assets $'000</t>
-  </si>
-  <si>
-    <t>8683</t>
-  </si>
-  <si>
-    <t>974</t>
-  </si>
-  <si>
-    <t>(460)</t>
-  </si>
-  <si>
-    <t>(215)</t>
-  </si>
-  <si>
-    <t>(2,928)</t>
-  </si>
-  <si>
-    <t>6054</t>
-  </si>
-  <si>
-    <t>Construction in progress $'000</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>(790)</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>3806</t>
+    <t>19</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>(9,83</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Note 14. Non-current assets - property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Leasehold improvements - at cost</t>
-  </si>
-  <si>
-    <t>Less: Accumulated depreciation</t>
-  </si>
-  <si>
-    <t>Motor vehicles at cost</t>
-  </si>
-  <si>
-    <t>Office equipment - at cost</t>
-  </si>
-  <si>
-    <t>Rental assets - at cost</t>
-  </si>
-  <si>
-    <t>Construction in progress at cost</t>
-  </si>
-  <si>
-    <t>32454</t>
-  </si>
-  <si>
-    <t>(18,902)</t>
-  </si>
-  <si>
-    <t>3207</t>
-  </si>
-  <si>
-    <t>(2,221)</t>
-  </si>
-  <si>
-    <t>39131</t>
-  </si>
-  <si>
-    <t>(31,727)</t>
-  </si>
-  <si>
-    <t>19696</t>
-  </si>
-  <si>
-    <t>(13,642)</t>
-  </si>
-  <si>
-    <t>28627</t>
-  </si>
-  <si>
-    <t>32241</t>
-  </si>
-  <si>
-    <t>(15,821)</t>
-  </si>
-  <si>
-    <t>3332</t>
-  </si>
-  <si>
-    <t>(1,741)</t>
-  </si>
-  <si>
-    <t>43357</t>
-  </si>
-  <si>
-    <t>(33,411)</t>
-  </si>
-  <si>
-    <t>20771</t>
-  </si>
-  <si>
-    <t>(12,088)</t>
-  </si>
-  <si>
-    <t>38061</t>
-  </si>
-  <si>
-    <t>Land and buildings</t>
-  </si>
-  <si>
-    <t>Plant and equipment - right-of-use</t>
-  </si>
-  <si>
-    <t>71337</t>
-  </si>
-  <si>
-    <t>(37,433)</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>(694)</t>
-  </si>
-  <si>
-    <t>73092</t>
-  </si>
-  <si>
-    <t>(26,067)</t>
-  </si>
-  <si>
-    <t>(627)</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Lease receivables</t>
-  </si>
-  <si>
-    <t>Less: Allowance for expected credit losses</t>
-  </si>
-  <si>
-    <t>113613</t>
-  </si>
-  <si>
-    <t>(2,317)</t>
-  </si>
-  <si>
-    <t>111296</t>
-  </si>
-  <si>
-    <t>130113</t>
-  </si>
-  <si>
-    <t>(2,636)</t>
-  </si>
-  <si>
-    <t>127477</t>
-  </si>
-  <si>
-    <t>Prepayments</t>
-  </si>
-  <si>
-    <t>Security deposits</t>
-  </si>
-  <si>
-    <t>Other deposits</t>
-  </si>
-  <si>
-    <t>Other current assets</t>
-  </si>
-  <si>
-    <t>5031</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>2231</t>
-  </si>
-  <si>
-    <t>8583</t>
-  </si>
-  <si>
-    <t>5034</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>6791</t>
-  </si>
-  <si>
-    <t>Finished goods</t>
-  </si>
-  <si>
-    <t>Less: Provision for impairment</t>
-  </si>
-  <si>
-    <t>73348</t>
-  </si>
-  <si>
-    <t>(5,430)</t>
-  </si>
-  <si>
-    <t>67918</t>
-  </si>
-  <si>
-    <t>76211</t>
-  </si>
-  <si>
-    <t>(8,594)</t>
-  </si>
-  <si>
-    <t>67617</t>
-  </si>
-  <si>
-    <t>Lessor commitments</t>
-  </si>
-  <si>
-    <t>Committed at the reporting date and recognised as assets, receivable:</t>
-  </si>
-  <si>
-    <t>1 year or less</t>
-  </si>
-  <si>
-    <t>Between 1 and 2 years</t>
-  </si>
-  <si>
-    <t>Between 2 and 3 years</t>
-  </si>
-  <si>
-    <t>Between 3 and 4 years</t>
-  </si>
-  <si>
-    <t>Between 4 and 5 years</t>
-  </si>
-  <si>
-    <t>Over 5 years</t>
-  </si>
-  <si>
-    <t>Total commitment</t>
-  </si>
-  <si>
-    <t>Less: Future finance charges</t>
-  </si>
-  <si>
-    <t>Net commitment recognised as assets</t>
-  </si>
-  <si>
-    <t>Representing:</t>
-  </si>
-  <si>
-    <t>Lease receivable current</t>
-  </si>
-  <si>
-    <t>Finance lease receivable - non-current (note 13)</t>
-  </si>
-  <si>
-    <t>108325</t>
-  </si>
-  <si>
-    <t>71096</t>
-  </si>
-  <si>
-    <t>42275</t>
-  </si>
-  <si>
-    <t>23014</t>
-  </si>
-  <si>
-    <t>7937</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>253474</t>
-  </si>
-  <si>
-    <t>(48,261)</t>
-  </si>
-  <si>
-    <t>205213</t>
-  </si>
-  <si>
-    <t>91600</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>51</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>(52</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>23178</t>
-  </si>
-  <si>
-    <t>Note 9. Current assets - cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash on hand Cash at bank</t>
-  </si>
-  <si>
-    <t>Short-term deposits</t>
-  </si>
-  <si>
-    <t>Note 10. Current assets trade and other receivables</t>
-  </si>
-  <si>
-    <t>Trade receivables</t>
-  </si>
-  <si>
-    <t>Receivable from related party</t>
-  </si>
-  <si>
-    <t>Other receivables</t>
-  </si>
-  <si>
-    <t>43482</t>
-  </si>
-  <si>
-    <t>75609</t>
-  </si>
-  <si>
-    <t>119092</t>
-  </si>
-  <si>
-    <t>97921</t>
-  </si>
-  <si>
-    <t>(5,059)</t>
-  </si>
-  <si>
-    <t>92862</t>
-  </si>
-  <si>
-    <t>(1,646)</t>
-  </si>
-  <si>
-    <t>89954</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>3132</t>
-  </si>
-  <si>
-    <t>186308</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>112025</t>
-  </si>
-  <si>
-    <t>(4,684)</t>
-  </si>
-  <si>
-    <t>107341</t>
-  </si>
-  <si>
-    <t>101672</t>
-  </si>
-  <si>
-    <t>(1,829)</t>
-  </si>
-  <si>
-    <t>99843</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>3041</t>
-  </si>
-  <si>
-    <t>211383</t>
-  </si>
-  <si>
-    <t>Current tax</t>
-  </si>
-  <si>
-    <t>Deferred tax - origination and reversal of temporary differences</t>
-  </si>
-  <si>
-    <t>Adjustment recognised for prior periods</t>
-  </si>
-  <si>
-    <t>Aggregate income tax expense</t>
-  </si>
-  <si>
-    <t>Decrease/Increase) in deferred tax assets (note 17)</t>
-  </si>
-  <si>
-    <t>Increase in deferred tax liabilities (note 22)</t>
-  </si>
-  <si>
-    <t>Tax at the statutory tax rate of 30%</t>
-  </si>
-  <si>
-    <t>Entertainment expenses</t>
-  </si>
-  <si>
-    <t>12915</t>
-  </si>
-  <si>
-    <t>11425</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>(4,505)</t>
-  </si>
-  <si>
-    <t>8410</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>51428</t>
-  </si>
-  <si>
-    <t>15428</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>(2,619)</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>Profit before income tax includes the following specific expenses:</t>
-  </si>
-  <si>
-    <t>Interest and finance charges paid/payable on borrowings</t>
-  </si>
-  <si>
-    <t>Interest and finance charges paid/payable on lease liabilities</t>
-  </si>
-  <si>
-    <t>Finance costs expensed</t>
-  </si>
-  <si>
-    <t>Superannuation expense</t>
-  </si>
-  <si>
-    <t>Defined contribution superannuation expense</t>
-  </si>
-  <si>
-    <t>are Leases - recognised the in following profit amounts or loss with respect to leases:</t>
-  </si>
-  <si>
-    <t>Depreciation expense of right-of-use assets (included in administration expenses)</t>
-  </si>
-  <si>
-    <t>Interest expense on lease liabilities (included in finance costs)</t>
-  </si>
-  <si>
-    <t>are recognised in profit or loss with respect to</t>
-  </si>
-  <si>
-    <t>2021 2020</t>
-  </si>
-  <si>
-    <t>$'000 $'000</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>9998</t>
-  </si>
-  <si>
-    <t>14565</t>
-  </si>
-  <si>
-    <t>15599</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>11840</t>
-  </si>
-  <si>
-    <t>15109</t>
-  </si>
-  <si>
-    <t>16474</t>
-  </si>
-  <si>
-    <t>The disaggregation of revenue from contracts with customers is as follows:</t>
-  </si>
-  <si>
-    <t>Geographicalregions</t>
-  </si>
-  <si>
-    <t>Timing of revenue recognition</t>
-  </si>
-  <si>
-    <t>Goods transferred at a point in time</t>
-  </si>
-  <si>
-    <t>Services transferred over time</t>
-  </si>
-  <si>
-    <t>Note 5. Revenue from leasing activities</t>
-  </si>
-  <si>
-    <t>Finance lease revenue</t>
-  </si>
-  <si>
-    <t>Finance income</t>
-  </si>
-  <si>
-    <t>Variable lease payments</t>
-  </si>
-  <si>
-    <t>Operating lease revenue</t>
-  </si>
-  <si>
-    <t>Note 6. Other income</t>
-  </si>
-  <si>
-    <t>Net foreign exchange gain</t>
-  </si>
-  <si>
-    <t>521348</t>
-  </si>
-  <si>
-    <t>90928</t>
-  </si>
-  <si>
-    <t>4741</t>
-  </si>
-  <si>
-    <t>617017</t>
-  </si>
-  <si>
-    <t>431957</t>
-  </si>
-  <si>
-    <t>185060</t>
-  </si>
-  <si>
-    <t>16217</t>
-  </si>
-  <si>
-    <t>2878</t>
-  </si>
-  <si>
-    <t>19095</t>
-  </si>
-  <si>
-    <t>8304</t>
-  </si>
-  <si>
-    <t>27399</t>
-  </si>
-  <si>
-    <t>676</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>1617</t>
-  </si>
-  <si>
-    <t>8959</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>4280</t>
-  </si>
-  <si>
-    <t>186646</t>
-  </si>
-  <si>
-    <t>614721</t>
-  </si>
-  <si>
-    <t>18411</t>
-  </si>
-  <si>
-    <t>2652</t>
-  </si>
-  <si>
-    <t>21063</t>
-  </si>
-  <si>
-    <t>7502</t>
-  </si>
-  <si>
-    <t>28565</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Revenue from contracts with customers*</t>
-  </si>
-  <si>
-    <t>Revenue from sale of goods</t>
-  </si>
-  <si>
-    <t>Revenue from rendering of services</t>
-  </si>
-  <si>
-    <t>18664</t>
-  </si>
-  <si>
-    <t>61472</t>
-  </si>
-  <si>
-    <t>Leasehold improvements</t>
-  </si>
-  <si>
-    <t>Motor vehicles</t>
-  </si>
-  <si>
-    <t>Office equipment</t>
-  </si>
-  <si>
-    <t>Rental assets</t>
-  </si>
-  <si>
-    <t>Over the life of the lease</t>
-  </si>
-  <si>
-    <t>3-5 years</t>
-  </si>
-  <si>
-    <t>3-7 years</t>
-  </si>
-  <si>
-    <t>Consolidated statement of cash flows For the year ended 31 December 2021</t>
-  </si>
-  <si>
-    <t>Cash flows from operating activities</t>
-  </si>
-  <si>
-    <t>Receipts from customers (inclusive of GST)</t>
-  </si>
-  <si>
-    <t>Payments to suppliers and employees (inclusive of GST)</t>
-  </si>
-  <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Interest and other finance costs paid</t>
-  </si>
-  <si>
-    <t>Income taxes refunded/(paid)</t>
-  </si>
-  <si>
-    <t>Net cash from operating activities</t>
-  </si>
-  <si>
-    <t>Cash flows from investing activities</t>
-  </si>
-  <si>
-    <t>Payments for property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Payments for intangibles</t>
-  </si>
-  <si>
-    <t>Payments for security deposits</t>
-  </si>
-  <si>
-    <t>Proceeds from disposal of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Proceeds from disposal of intangibles</t>
-  </si>
-  <si>
-    <t>Proceeds from release of security deposits</t>
-  </si>
-  <si>
-    <t>Net cash used in investing activities</t>
-  </si>
-  <si>
-    <t>Cash flows from financing activities</t>
-  </si>
-  <si>
-    <t>Repayment of borrowings</t>
-  </si>
-  <si>
-    <t>Repayment of principal portion of lease liabilities</t>
-  </si>
-  <si>
-    <t>Net cash used in financing activities</t>
-  </si>
-  <si>
-    <t>Net increase in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at the beginning of the financial year</t>
-  </si>
-  <si>
-    <t>Effects of exchange rate changes on cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at the end of the financial year</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Canon</t>
-  </si>
-  <si>
-    <t>752435</t>
-  </si>
-  <si>
-    <t>(650,378)</t>
-  </si>
-  <si>
-    <t>102057</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>(1,106)</t>
-  </si>
-  <si>
-    <t>4104</t>
-  </si>
-  <si>
-    <t>105344</t>
-  </si>
-  <si>
-    <t>(1,336)</t>
-  </si>
-  <si>
-    <t>(2,830)</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>(3,447)</t>
-  </si>
-  <si>
-    <t>(50,000)</t>
-  </si>
-  <si>
-    <t>(13,179)</t>
-  </si>
-  <si>
-    <t>(63,179)</t>
-  </si>
-  <si>
-    <t>38718</t>
-  </si>
-  <si>
-    <t>80373</t>
-  </si>
-  <si>
-    <t>755,958 (703,683)</t>
-  </si>
-  <si>
-    <t>52275</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>(2,308)</t>
-  </si>
-  <si>
-    <t>(1,601)</t>
-  </si>
-  <si>
-    <t>48889</t>
-  </si>
-  <si>
-    <t>(4,558)</t>
-  </si>
-  <si>
-    <t>(1,807)</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>(4,340)</t>
-  </si>
-  <si>
-    <t>(25,778)</t>
-  </si>
-  <si>
-    <t>(14,166)</t>
-  </si>
-  <si>
-    <t>(39,944)</t>
-  </si>
-  <si>
-    <t>4605</t>
-  </si>
-  <si>
-    <t>77252</t>
-  </si>
-  <si>
-    <t>(1,484)</t>
-  </si>
-  <si>
-    <t>Issued</t>
-  </si>
-  <si>
-    <t>capital $'000</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>Reserves $'000</t>
-  </si>
-  <si>
-    <t>(5,012)</t>
-  </si>
-  <si>
-    <t>(1,803)</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>Retained profits $'000</t>
-  </si>
-  <si>
-    <t>406278</t>
-  </si>
-  <si>
-    <t>5221</t>
-  </si>
-  <si>
-    <t>411499</t>
-  </si>
-  <si>
-    <t>Retained</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>43018</t>
-  </si>
-  <si>
-    <t>454517</t>
-  </si>
-  <si>
-    <t>Total equity $'000</t>
-  </si>
-  <si>
-    <t>441266</t>
-  </si>
-  <si>
-    <t>3418</t>
-  </si>
-  <si>
-    <t>444684</t>
-  </si>
-  <si>
-    <t>43644</t>
-  </si>
-  <si>
-    <t>488328</t>
-  </si>
-  <si>
-    <t>As at 31 December 2021</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Deferred tax assets</t>
-  </si>
-  <si>
-    <t>Total non-current assets</t>
-  </si>
-  <si>
-    <t>Retirement benefit obligations</t>
-  </si>
-  <si>
-    <t>Total non-current liabilities</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -2403,60 +2418,51 @@
     <t>172247</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>4114</t>
+    <t>6236</t>
+  </si>
+  <si>
+    <t>372400</t>
+  </si>
+  <si>
+    <t>314297</t>
+  </si>
+  <si>
+    <t>686697</t>
+  </si>
+  <si>
+    <t>3376</t>
+  </si>
+  <si>
+    <t>12835</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>18426</t>
+  </si>
+  <si>
+    <t>184168</t>
+  </si>
+  <si>
+    <t>36107</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>57845</t>
+  </si>
+  <si>
+    <t>242013</t>
   </si>
   <si>
     <t>For the year ended 31 December 2021</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Gross profit</t>
   </si>
   <si>
@@ -2469,7 +2475,7 @@
     <t>Canon Australia Pty. Ltd. and its controlled entities</t>
   </si>
   <si>
-    <t>Other comprehensive income/(loss)</t>
+    <t>Other comprehensive incomel(loss)</t>
   </si>
   <si>
     <t>Items that will not be reclassified subsequently to profit or loss</t>
@@ -2484,10 +2490,10 @@
     <t>Items that may be reclassified subsequently to profit or loss</t>
   </si>
   <si>
-    <t>Other comprehensive income/(loss) for the year, net of tax</t>
-  </si>
-  <si>
-    <t>Australia Pty. Ltd. and its controlled entities</t>
+    <t>Other comprehensive incomel(loss) for the year, net of tax</t>
+  </si>
+  <si>
+    <t>Total comprehensive income for the year attributable to the owners of Canon Australia Pty. Ltd. and its controlled entities</t>
   </si>
   <si>
     <t>6</t>
@@ -2518,9 +2524,6 @@
   </si>
   <si>
     <t>(8,410)</t>
-  </si>
-  <si>
-    <t>428075</t>
   </si>
   <si>
     <t>(429,439)</t>
@@ -3347,10 +3350,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3363,21 +3366,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3412,43 +3415,43 @@
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -3459,88 +3462,97 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="E11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3569,7 +3581,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3590,40 +3602,43 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
         <v>252</v>
-      </c>
-      <c r="C6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3652,7 +3667,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3673,18 +3688,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
         <v>266</v>
       </c>
-      <c r="B5" t="s">
-        <v>268</v>
+      <c r="C5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
         <v>267</v>
       </c>
-      <c r="B6" t="s">
-        <v>269</v>
+      <c r="C6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3692,15 +3713,18 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3735,15 +3759,15 @@
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
         <v>286</v>
@@ -3754,21 +3778,21 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
         <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
         <v>288</v>
@@ -3776,7 +3800,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>285</v>
@@ -3785,34 +3809,34 @@
         <v>289</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
         <v>290</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3831,10 +3855,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -3845,13 +3869,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
@@ -3886,7 +3910,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3907,13 +3931,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
         <v>294</v>
-      </c>
-      <c r="C5" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3942,7 +3966,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3963,23 +3987,23 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4000,25 +4024,31 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4026,92 +4056,92 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" t="s">
         <v>315</v>
-      </c>
-      <c r="C18" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
         <v>315</v>
-      </c>
-      <c r="C22" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4173,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4164,13 +4194,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4199,7 +4229,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4220,20 +4250,23 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>333</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4243,6 +4276,9 @@
       <c r="B8" t="s">
         <v>334</v>
       </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -4251,26 +4287,38 @@
       <c r="B9" t="s">
         <v>335</v>
       </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
         <v>336</v>
       </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
         <v>337</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4280,6 +4328,9 @@
       <c r="B13" t="s">
         <v>338</v>
       </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -4289,18 +4340,18 @@
         <v>339</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
         <v>340</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4310,13 +4361,19 @@
       <c r="B16" t="s">
         <v>341</v>
       </c>
+      <c r="C16" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
         <v>342</v>
+      </c>
+      <c r="C18" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4326,16 +4383,19 @@
       <c r="B19" t="s">
         <v>343</v>
       </c>
+      <c r="C19" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
         <v>341</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4424,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4385,54 +4445,54 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4529,6 +4589,9 @@
       <c r="B8" t="s">
         <v>118</v>
       </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -4538,7 +4601,7 @@
         <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4549,7 +4612,7 @@
         <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4560,7 +4623,7 @@
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4571,7 +4634,7 @@
         <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4581,6 +4644,9 @@
       <c r="B13" t="s">
         <v>123</v>
       </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -4589,6 +4655,9 @@
       <c r="B14" t="s">
         <v>124</v>
       </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -4598,7 +4667,7 @@
         <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4609,7 +4678,7 @@
         <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4620,7 +4689,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4636,7 +4705,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4666,7 +4735,7 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4677,7 +4746,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4720,91 +4789,94 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4839,86 +4911,89 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" t="s">
         <v>385</v>
-      </c>
-      <c r="D2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>397</v>
+      </c>
+      <c r="E5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4950,15 +5025,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4979,109 +5054,109 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C11" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5122,159 +5197,165 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>446</v>
+      </c>
+      <c r="G5" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="E7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F7" t="s">
-        <v>446</v>
+        <v>452</v>
+      </c>
+      <c r="G7" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G8" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F9" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G9" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5303,12 +5384,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5329,141 +5410,141 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" t="s">
         <v>423</v>
-      </c>
-      <c r="C8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" t="s">
         <v>430</v>
-      </c>
-      <c r="C11" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C16" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5576,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5516,70 +5597,73 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D8" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D9" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>376</v>
+        <v>384</v>
+      </c>
+      <c r="D10" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5608,7 +5692,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5629,32 +5713,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5683,7 +5767,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5704,54 +5788,54 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5783,7 +5867,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5804,35 +5888,35 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C6" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -5861,7 +5945,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5882,140 +5966,146 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C10" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>539</v>
+      </c>
+      <c r="C11" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>540</v>
+      </c>
+      <c r="C12" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B13" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C13" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B14" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C14" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C15" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C17" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C19" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -6050,15 +6140,15 @@
     </row>
     <row r="2" spans="1:5">
       <c r="D2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -6069,106 +6159,106 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6197,12 +6287,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6223,42 +6313,42 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C8" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6279,92 +6369,92 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B13" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C14" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C15" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C16" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C17" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C18" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C19" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B20" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C20" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C21" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -6390,7 +6480,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6411,55 +6501,52 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>580</v>
-      </c>
-      <c r="B8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B12" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6467,23 +6554,23 @@
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B17" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B19" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6491,23 +6578,23 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B21" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B22" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6515,7 +6602,7 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -6550,31 +6637,31 @@
     </row>
     <row r="2" spans="1:5">
       <c r="D2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="D4" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E4" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6584,119 +6671,122 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E8" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D9" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E9" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C11" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D11" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E11" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B12" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>609</v>
+      </c>
+      <c r="C13" t="s">
+        <v>596</v>
       </c>
       <c r="D13" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E13" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C14" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D14" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E14" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E15" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6725,12 +6815,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6751,29 +6841,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C8" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6781,63 +6871,63 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C9" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C10" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B12" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C12" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B13" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C13" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C14" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6858,71 +6948,71 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B20" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C20" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B21" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C21" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C22" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B24" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C24" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C25" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6943,10 +7033,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B30" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6954,10 +7044,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C31" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6965,10 +7055,10 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C32" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -6997,7 +7087,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7018,37 +7108,37 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C8" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C9" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -7074,34 +7164,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>666</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -7133,23 +7223,23 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -7168,245 +7258,245 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C8" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C11" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C12" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C13" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>698</v>
       </c>
       <c r="C15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D15" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B16" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C16" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D16" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C17" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C18" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D20" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C21" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C23" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D23" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C24" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D24" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C26" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D26" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C27" t="s">
-        <v>716</v>
+        <v>575</v>
       </c>
       <c r="D27" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C28" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B29" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C29" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D29" t="s">
-        <v>716</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7438,7 +7528,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C2" t="s">
         <v>741</v>
@@ -7446,10 +7536,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C3" t="s">
         <v>741</v>
@@ -7463,7 +7553,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>738</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
         <v>742</v>
@@ -7504,7 +7594,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
         <v>744</v>
@@ -7515,7 +7605,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C9" t="s">
         <v>745</v>
@@ -7523,7 +7613,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7554,7 +7644,7 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>744</v>
@@ -7595,7 +7685,7 @@
         <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
         <v>748</v>
@@ -7638,12 +7728,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -7675,13 +7765,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D8" t="s">
-        <v>783</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7689,13 +7779,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>761</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D9" t="s">
-        <v>784</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7703,10 +7793,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D10" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7714,13 +7804,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D11" t="s">
-        <v>786</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7728,21 +7818,24 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>507</v>
+      </c>
+      <c r="D12" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D13" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7755,13 +7848,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>764</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D15" t="s">
-        <v>788</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7769,13 +7862,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>698</v>
       </c>
       <c r="C16" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7783,13 +7876,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D17" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7797,13 +7890,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7811,13 +7904,13 @@
         <v>757</v>
       </c>
       <c r="B19" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C19" t="s">
         <v>341</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7825,7 +7918,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>772</v>
+        <v>777</v>
+      </c>
+      <c r="D20" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7833,10 +7929,10 @@
         <v>758</v>
       </c>
       <c r="C21" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="D21" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7844,15 +7940,15 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7865,13 +7961,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>767</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D25" t="s">
-        <v>791</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7879,7 +7975,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>775</v>
+        <v>780</v>
+      </c>
+      <c r="D26" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7887,10 +7986,10 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D27" t="s">
-        <v>567</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7898,15 +7997,18 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D28" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7914,7 +8016,10 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>777</v>
+        <v>782</v>
+      </c>
+      <c r="D30" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7922,10 +8027,10 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D31" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7933,21 +8038,24 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>769</v>
       </c>
       <c r="C32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D33" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7960,10 +8068,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="D35" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7971,10 +8082,10 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D36" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7982,9 +8093,12 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7995,35 +8109,41 @@
       <c r="C38" t="s">
         <v>57</v>
       </c>
+      <c r="D38" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>759</v>
       </c>
+      <c r="D40" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>760</v>
       </c>
       <c r="C41" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="D41" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8031,10 +8151,10 @@
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D42" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8045,7 +8165,7 @@
         <v>754</v>
       </c>
       <c r="D43" t="s">
-        <v>796</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8058,13 +8178,13 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>773</v>
       </c>
       <c r="C45" t="s">
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>797</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8072,13 +8192,13 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8089,7 +8209,7 @@
         <v>748</v>
       </c>
       <c r="D47" t="s">
-        <v>798</v>
+        <v>744</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8110,7 +8230,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8132,17 +8252,17 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -8161,269 +8281,264 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>800</v>
+        <v>665</v>
+      </c>
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D7" t="s">
-        <v>822</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D8" t="s">
         <v>662</v>
-      </c>
-      <c r="B8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" t="s">
-        <v>639</v>
-      </c>
-      <c r="D8" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>421</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>644</v>
+        <v>817</v>
       </c>
       <c r="D9" t="s">
-        <v>658</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>803</v>
       </c>
       <c r="C10" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>801</v>
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>814</v>
       </c>
       <c r="C11" t="s">
-        <v>816</v>
+        <v>651</v>
       </c>
       <c r="D11" t="s">
-        <v>824</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>812</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>647</v>
+        <v>705</v>
       </c>
       <c r="D12" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>703</v>
-      </c>
-      <c r="D13" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>802</v>
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>819</v>
+      </c>
+      <c r="D14" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D15" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D16" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D17" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>815</v>
       </c>
       <c r="C18" t="s">
-        <v>820</v>
+        <v>706</v>
       </c>
       <c r="D18" t="s">
-        <v>828</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" t="s">
-        <v>813</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>704</v>
+        <v>597</v>
       </c>
       <c r="D19" t="s">
-        <v>720</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>816</v>
       </c>
       <c r="C20" t="s">
-        <v>593</v>
+        <v>823</v>
       </c>
       <c r="D20" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>814</v>
-      </c>
-      <c r="C21" t="s">
-        <v>821</v>
-      </c>
-      <c r="D21" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>803</v>
+        <v>806</v>
+      </c>
+      <c r="C22" t="s">
+        <v>747</v>
+      </c>
+      <c r="D22" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>804</v>
-      </c>
-      <c r="C23" t="s">
-        <v>747</v>
-      </c>
-      <c r="D23" t="s">
-        <v>743</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>806</v>
+        <v>809</v>
+      </c>
+      <c r="B25" t="s">
+        <v>774</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>807</v>
-      </c>
-      <c r="B26" t="s">
-        <v>769</v>
-      </c>
-      <c r="C26" t="s">
+        <v>810</v>
+      </c>
+      <c r="D26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>808</v>
-      </c>
-      <c r="D27" t="s">
-        <v>249</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>809</v>
+        <v>237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>774</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29" t="s">
-        <v>769</v>
+        <v>812</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>740</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C30" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="D30" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>811</v>
-      </c>
-      <c r="C31" t="s">
-        <v>753</v>
-      </c>
-      <c r="D31" t="s">
         <v>751</v>
       </c>
     </row>
@@ -8453,7 +8568,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8474,18 +8589,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8495,26 +8616,26 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8522,21 +8643,21 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8544,10 +8665,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8571,10 +8692,10 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8582,10 +8703,10 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -8614,10 +8735,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8630,64 +8751,64 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8719,10 +8840,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8735,137 +8856,137 @@
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8894,10 +9015,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8910,20 +9031,20 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -8958,30 +9079,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -8989,12 +9110,12 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -9040,7 +9161,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9061,13 +9182,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
